--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132920.481214415</v>
+        <v>125276.4193603848</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219458</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796774</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.889108405799</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424603</v>
+        <v>30.70785528783176</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>45.83379873922986</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656964</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W9" t="n">
-        <v>118.5811223965351</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>91.3274798296349</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>119.0839105424603</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616411</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.8891084057995</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>148.9402274414021</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>250.9321946446897</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>30.42687284080428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>108.8643010498277</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.0012590013212</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>35.07113733690952</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.96377639543496</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>225.6271372419304</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>149.6157531058519</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>395.2479192115762</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>131.5131603608112</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>155.7114808343868</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>128.9395398500421</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>86.38976318987859</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>86.40139106177401</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>109.5540470185019</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>86.38976318987859</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>86.38976318987949</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>361.9987888703319</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>167.4490654225681</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>49.34995949258636</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>26.8963105952594</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,7 +2803,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>222.0215175726363</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>26.7011001816022</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>137.6384805602083</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>93.53818910684734</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>14.75918992024096</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>321.9370827829817</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>231.3935365359306</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>82.17043591154993</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>55.96684102370097</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>385.9239273277409</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>321.9370827829817</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5646102646778</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.01997492189429</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>177.696843993419</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>18.37481761899368</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>82.17043591154903</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>1.426178331047986</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>381.3842817018733</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>372.6627600095657</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>98.26917855572405</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>233.5971615536636</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.8134911691143</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8134911691143</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="D8" t="n">
-        <v>129.8134911691143</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8134911691143</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691143</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="G8" t="n">
-        <v>129.8134911691143</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396821</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585553</v>
+        <v>23.57954741585565</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306557997</v>
+        <v>55.41632306558026</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318064</v>
+        <v>103.1313969318069</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183085</v>
+        <v>162.3261653183094</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590918</v>
+        <v>228.191750759093</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326564</v>
+        <v>295.123110232658</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336403</v>
+        <v>358.3244950336422</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455646</v>
+        <v>412.2654147455668</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244986</v>
+        <v>452.7727990245011</v>
       </c>
       <c r="R8" t="n">
-        <v>476.335642169841</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="S8" t="n">
-        <v>476.335642169841</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="T8" t="n">
-        <v>476.335642169841</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="U8" t="n">
-        <v>476.335642169841</v>
+        <v>401.4050834648256</v>
       </c>
       <c r="V8" t="n">
-        <v>370.3870478205491</v>
+        <v>281.1183051391075</v>
       </c>
       <c r="W8" t="n">
-        <v>250.1002694948317</v>
+        <v>250.100269494833</v>
       </c>
       <c r="X8" t="n">
-        <v>129.8134911691143</v>
+        <v>250.100269494833</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.8134911691143</v>
+        <v>129.8134911691149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.9831740067545</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396821</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396821</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396821</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396821</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396821</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396821</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114674</v>
+        <v>42.50045791160442</v>
       </c>
       <c r="J9" t="n">
-        <v>134.3298561881824</v>
+        <v>61.46222338483268</v>
       </c>
       <c r="K9" t="n">
-        <v>166.7385335674981</v>
+        <v>100.1176749029951</v>
       </c>
       <c r="L9" t="n">
-        <v>210.3159997831872</v>
+        <v>143.6951411186845</v>
       </c>
       <c r="M9" t="n">
-        <v>261.1688474406029</v>
+        <v>194.5479887761004</v>
       </c>
       <c r="N9" t="n">
-        <v>313.3676186581395</v>
+        <v>246.7467599936373</v>
       </c>
       <c r="O9" t="n">
-        <v>361.1192964644719</v>
+        <v>294.49843779997</v>
       </c>
       <c r="P9" t="n">
-        <v>399.4442277663338</v>
+        <v>332.8233691018321</v>
       </c>
       <c r="Q9" t="n">
-        <v>425.0634293973088</v>
+        <v>358.4425707328073</v>
       </c>
       <c r="R9" t="n">
-        <v>476.335642169841</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="S9" t="n">
-        <v>476.335642169841</v>
+        <v>416.6838142238136</v>
       </c>
       <c r="T9" t="n">
-        <v>476.335642169841</v>
+        <v>416.6838142238136</v>
       </c>
       <c r="U9" t="n">
-        <v>476.335642169841</v>
+        <v>296.3970358980955</v>
       </c>
       <c r="V9" t="n">
-        <v>476.335642169841</v>
+        <v>176.1102575723774</v>
       </c>
       <c r="W9" t="n">
-        <v>356.5567306581894</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="X9" t="n">
-        <v>356.5567306581894</v>
+        <v>55.82347924665936</v>
       </c>
       <c r="Y9" t="n">
-        <v>236.269952332472</v>
+        <v>55.82347924665936</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>462.637027446443</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="C10" t="n">
-        <v>370.3870478205491</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="D10" t="n">
-        <v>250.1002694948317</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="E10" t="n">
-        <v>250.1002694948317</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="F10" t="n">
-        <v>129.8134911691143</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396821</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396821</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396821</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642498</v>
+        <v>21.42271513642509</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137675</v>
+        <v>40.97150121137697</v>
       </c>
       <c r="L10" t="n">
-        <v>65.98721697583382</v>
+        <v>158.8645726484132</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728868</v>
+        <v>276.7576440854495</v>
       </c>
       <c r="N10" t="n">
-        <v>122.656427858734</v>
+        <v>394.6507155224858</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5494992957697</v>
+        <v>441.8958206927276</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328053</v>
+        <v>462.246137589532</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.335642169841</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="R10" t="n">
-        <v>462.637027446443</v>
+        <v>476.3356421698435</v>
       </c>
       <c r="S10" t="n">
-        <v>462.637027446443</v>
+        <v>370.3870478205511</v>
       </c>
       <c r="T10" t="n">
-        <v>462.637027446443</v>
+        <v>250.100269494833</v>
       </c>
       <c r="U10" t="n">
-        <v>462.637027446443</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="V10" t="n">
-        <v>462.637027446443</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="W10" t="n">
-        <v>462.637027446443</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="X10" t="n">
-        <v>462.637027446443</v>
+        <v>9.52671284339687</v>
       </c>
       <c r="Y10" t="n">
-        <v>462.637027446443</v>
+        <v>9.52671284339687</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1128.043535737734</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.043535737734</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="D11" t="n">
-        <v>1128.043535737734</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E11" t="n">
-        <v>1128.043535737734</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>700.1761061469419</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>300.6734148264191</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
         <v>276.0532770435808</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.329659438081</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y11" t="n">
-        <v>1128.043535737734</v>
+        <v>1025.021346643504</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>699.0748969752688</v>
       </c>
       <c r="C13" t="n">
-        <v>471.655226289377</v>
+        <v>699.0748969752688</v>
       </c>
       <c r="D13" t="n">
-        <v>305.7772334908997</v>
+        <v>699.0748969752688</v>
       </c>
       <c r="E13" t="n">
-        <v>275.0430185001883</v>
+        <v>529.316893226006</v>
       </c>
       <c r="F13" t="n">
-        <v>275.0430185001883</v>
+        <v>352.6098391877622</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
@@ -5199,13 +5199,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092381</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
         <v>1066.127311827553</v>
@@ -5244,7 +5244,7 @@
         <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>339.1270151866529</v>
+        <v>918.0444189444366</v>
       </c>
       <c r="C14" t="n">
-        <v>47.20655154895474</v>
+        <v>918.0444189444366</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895474</v>
+        <v>482.1346341188811</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>482.1346341188811</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1326.330542644783</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715607</v>
+        <v>918.0444189444366</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="C16" t="n">
-        <v>299.093514772602</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="D16" t="n">
-        <v>287.0088921509505</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E16" t="n">
-        <v>287.0088921509505</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5445,10 +5445,10 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1745.747615621104</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1458.792107491535</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1186.765703077826</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>941.3739484112389</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>713.9542777253471</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1934.028006962828</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C17" t="n">
-        <v>1495.885534146252</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D17" t="n">
-        <v>1059.975749320696</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>626.2010044789913</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>198.3335748881991</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
         <v>805.440802286702</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447736</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447736</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y17" t="n">
-        <v>2360.327577447736</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,10 +5585,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.0748969752678</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5131854584928</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5131854584928</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>356.75518170923</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>180.0481276709862</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,13 +5679,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527956</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>890.893515694255</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1485.275513477279</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C20" t="n">
-        <v>1047.133040660702</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="D20" t="n">
-        <v>611.2232558351466</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>177.4485109934417</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>2319.861207662533</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y20" t="n">
-        <v>1911.575083962186</v>
+        <v>1492.432620541498</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>528.8193777246577</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>356.2576662078826</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D22" t="n">
-        <v>356.2576662078826</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>356.2576662078826</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>733.422710770687</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2273.065190387253</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2030.817966290659</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.431334339402</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1465.475826209833</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.449421796124</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>948.0576671295366</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.6379964436449</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1893.561637177626</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="C23" t="n">
-        <v>1455.41916436105</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="D23" t="n">
-        <v>1019.509379535494</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E23" t="n">
-        <v>585.7346346937893</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F23" t="n">
-        <v>157.867205102997</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>157.867205102997</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="Y23" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.25688596925</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,16 +6074,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
         <v>1488.088567599445</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.8193777246577</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C25" t="n">
-        <v>356.2576662078826</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D25" t="n">
-        <v>356.2576662078826</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2576662078826</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F25" t="n">
-        <v>179.5506121696388</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G25" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.065190387253</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T25" t="n">
-        <v>2030.817966290659</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.431334339402</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1465.475826209833</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.449421796124</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>948.0576671295366</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.6379964436449</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1952.04145374739</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>1513.898980930814</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>1077.989196105258</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>644.2144512635532</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>216.3470216727609</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y26" t="n">
-        <v>1952.04145374739</v>
+        <v>2148.556325916848</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.2333208532364</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C28" t="n">
-        <v>393.6716093364613</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E28" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2310.479133515832</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>2068.231909419238</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1789.845277467981</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1502.889769338411</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1230.863364924703</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>985.4716102581153</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y28" t="n">
-        <v>758.0519395722235</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1624.755105488881</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.612632672305</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D29" t="n">
-        <v>750.7028478467491</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E29" t="n">
-        <v>316.9281030050443</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F29" t="n">
         <v>316.9281030050443</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>1624.755105488881</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>1624.755105488881</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X29" t="n">
-        <v>1624.755105488881</v>
+        <v>1641.648052763359</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.755105488881</v>
+        <v>1641.648052763359</v>
       </c>
     </row>
     <row r="30">
@@ -6524,13 +6524,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>616.081764785142</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>616.081764785142</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>446.3237610358793</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
-        <v>269.6167069976354</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
         <v>242.6458987333908</v>
@@ -6627,7 +6627,7 @@
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092383</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
         <v>1066.127311827553</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2076.872270709337</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1798.48563875808</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1849.01926465316</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>1410.876791836584</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>974.9670070110283</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>541.1922621693234</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>541.1922621693234</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6895708488005</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y32" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>941.3221210718621</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>768.760409555087</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1378.532494457437</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1133.140739790849</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.140739790849</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2108.089956131646</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C35" t="n">
-        <v>1669.94748331507</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>1234.037698489514</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>800.2629536478094</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>372.3955240570171</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>1293.137839386401</v>
       </c>
       <c r="X35" t="n">
-        <v>2108.089956131646</v>
+        <v>1293.137839386401</v>
       </c>
       <c r="Y35" t="n">
-        <v>2108.089956131646</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
         <v>803.387703298788</v>
@@ -7055,13 +7055,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C37" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D37" t="n">
-        <v>471.655226289377</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>280.4457682374015</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>103.7387141991577</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="C38" t="n">
-        <v>1669.94748331507</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="D38" t="n">
-        <v>1234.037698489514</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E38" t="n">
-        <v>800.2629536478094</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>372.3955240570171</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895474</v>
@@ -7171,13 +7171,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W38" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X38" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y38" t="n">
-        <v>2108.089956131646</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="39">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>852.4895006216354</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>679.9277891048604</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>514.0497963063831</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>344.2917925571204</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>488.1941452900674</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1030.274828676326</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1160.879221014856</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540314</v>
@@ -7365,19 +7365,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774552</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X40" t="n">
-        <v>890.8935156942559</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y40" t="n">
-        <v>852.4895006216354</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.028006962829</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C41" t="n">
-        <v>1495.885534146252</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D41" t="n">
-        <v>1059.975749320697</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E41" t="n">
-        <v>626.2010044789918</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
         <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
@@ -7414,19 +7414,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2089.529534294279</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>1726.912584228106</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>1318.626460527759</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C43" t="n">
-        <v>388.6547859746801</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6547859746801</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,19 +7575,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>1937.236374968567</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,7 +7596,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
         <v>1973.653814855378</v>
@@ -7605,16 +7605,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1740.270202216502</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="C44" t="n">
-        <v>1302.127729399926</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="D44" t="n">
-        <v>866.21794457437</v>
+        <v>857.4083267033523</v>
       </c>
       <c r="E44" t="n">
-        <v>432.4431997326652</v>
+        <v>423.6335818616474</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>423.6335818616474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W44" t="n">
-        <v>2148.556325916849</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X44" t="n">
-        <v>2148.556325916849</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y44" t="n">
-        <v>1740.270202216502</v>
+        <v>1293.318111528908</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.9721259575934</v>
+        <v>894.468396736399</v>
       </c>
       <c r="C46" t="n">
-        <v>749.9721259575934</v>
+        <v>721.9066852196239</v>
       </c>
       <c r="D46" t="n">
-        <v>584.0941331591162</v>
+        <v>556.0286924211466</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>386.2706886718839</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>209.5636346336401</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7821,10 +7821,10 @@
         <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000714</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871144</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W46" t="n">
-        <v>1414.60217002906</v>
+        <v>1559.098440807865</v>
       </c>
       <c r="X46" t="n">
-        <v>1169.210415362472</v>
+        <v>1313.706686141278</v>
       </c>
       <c r="Y46" t="n">
-        <v>941.7907446765805</v>
+        <v>1086.287015455386</v>
       </c>
     </row>
   </sheetData>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>99.93061208465404</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.309872867521761</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.20322876385131</v>
+        <v>106.4970253946634</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>93.81551078038291</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>92.44192588442553</v>
       </c>
       <c r="N10" t="n">
-        <v>4.591144685778616</v>
+        <v>93.07541273182994</v>
       </c>
       <c r="O10" t="n">
-        <v>95.06085321698721</v>
+        <v>23.69927112931651</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912264</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340648</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>69.27619576520624</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>177.1920849464597</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173438</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>45.7590440382502</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475399</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>158.2045317475398</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10509,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520573</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>200.7092366734156</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>181.022262991846</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
-        <v>68.57677528255635</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464598</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>304.5048447524234</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021316</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796778</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,16 +23080,16 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>254.1016721597127</v>
+        <v>239.9068700230508</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006167</v>
+        <v>370.0990447552452</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208822</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.006951526505262</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -23114,10 +23114,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>38.49471264502304</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809192</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656966</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518726</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.04243221615975</v>
       </c>
       <c r="W9" t="n">
-        <v>64.8884043276028</v>
+        <v>64.38561618167704</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.137010886111156</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -23181,25 +23181,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>79.50861457197242</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13530232803227</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>55.85607295540107</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>44.68149179608135</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742793</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616406</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>49.79790932510015</v>
       </c>
       <c r="T10" t="n">
-        <v>242.6944597176218</v>
+        <v>123.6105491751609</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.5554896577345</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>165.0020425058129</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23263,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>282.6104595358978</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>16.09214129683895</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>137.6335508709658</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>54.22946753377909</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>144.7597890870898</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>388.5176179579748</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>152.2554364750576</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23670,10 +23670,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>49.97562838981406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>245.8919113014657</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>8.955343251766919</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.58060822279555</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>275.8392061429131</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>294.6492154448422</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>56.59250992092923</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>347.3596570266369</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>157.4702889230268</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>76.70400539372817</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>56.59250992092833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>60.03778590972684</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>228.0585989847495</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,7 +24496,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24511,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>93.63231361822145</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.8647374931515</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>136.9692629928754</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>136.3926684020045</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.1862712954191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4861468346813</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448417</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.4600229502516</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>81.67066052189108</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>73.57058162433586</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>169.4133635071464</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>85.88998780022018</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>107.1269275599058</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>45.62675964955901</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>73.57058162433586</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>54.7415301048936</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>187.1254990571385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>245.8919113014653</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>238.1051669447075</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>88.66565849005828</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>282.6597747172258</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>42.20447359301102</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>22.84490439775186</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>64.82459002788271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>35.70897881590781</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>88534.18001377302</v>
+        <v>88534.18001377348</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>391775.1927407295</v>
+        <v>391775.1927407296</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>391775.1927407294</v>
+        <v>391775.1927407295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>391775.1927407294</v>
+        <v>391775.1927407295</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>391775.1927407295</v>
+        <v>391775.1927407294</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>391775.1927407295</v>
+        <v>391775.1927407294</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>391775.1927407296</v>
+        <v>391775.1927407295</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391775.1927407294</v>
+        <v>391775.1927407295</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391775.1927407294</v>
+        <v>391775.1927407295</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646939</v>
+        <v>38163.29078646958</v>
       </c>
       <c r="E2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="F2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="G2" t="n">
+        <v>173027.3284308991</v>
+      </c>
+      <c r="H2" t="n">
+        <v>173027.3284308991</v>
+      </c>
+      <c r="I2" t="n">
         <v>173027.328430899</v>
-      </c>
-      <c r="H2" t="n">
-        <v>173027.328430899</v>
-      </c>
-      <c r="I2" t="n">
-        <v>173027.3284308991</v>
       </c>
       <c r="J2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="K2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="L2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="M2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="N2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="O2" t="n">
         <v>173027.328430899</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730572</v>
+        <v>117708.4675730579</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180448</v>
+        <v>439858.2450180443</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310181</v>
+        <v>30139.06600310194</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597482</v>
+        <v>117374.581559748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5372.082091296864</v>
+        <v>5372.082091296891</v>
       </c>
       <c r="E4" t="n">
         <v>14728.7909942616</v>
@@ -26438,16 +26438,16 @@
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
       <c r="J4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
       <c r="K4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="L4" t="n">
-        <v>14728.79099426161</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="M4" t="n">
         <v>14728.7909942616</v>
@@ -26456,10 +26456,10 @@
         <v>14728.7909942616</v>
       </c>
       <c r="O4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="P4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239232</v>
+        <v>42922.56227239237</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-127839.821150277</v>
+        <v>-129006.7199464287</v>
       </c>
       <c r="E6" t="n">
-        <v>-327610.7887910452</v>
+        <v>-328164.6692342666</v>
       </c>
       <c r="F6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="G6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="H6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="I6" t="n">
-        <v>112247.4562269997</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="J6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="K6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="L6" t="n">
-        <v>82108.39022389783</v>
+        <v>81554.5097806758</v>
       </c>
       <c r="M6" t="n">
-        <v>-5127.125332748546</v>
+        <v>-5681.00577597038</v>
       </c>
       <c r="N6" t="n">
-        <v>112247.4562269997</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="O6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
       <c r="P6" t="n">
-        <v>112247.4562269996</v>
+        <v>111693.5757837777</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480423</v>
+        <v>94.25048217480474</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26752,16 +26752,16 @@
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.7019280932211</v>
       </c>
-      <c r="H3" t="n">
-        <v>466.701928093221</v>
-      </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
         <v>466.7019280932212</v>
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424603</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="I4" t="n">
         <v>590.081894361934</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>590.081894361934</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480423</v>
+        <v>94.25048217480474</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184169</v>
+        <v>372.4514459184164</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424603</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="E4" t="n">
-        <v>470.997983819474</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424603</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="M4" t="n">
-        <v>470.997983819474</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424603</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M4" t="n">
-        <v>470.997983819474</v>
+        <v>470.9979838194733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529815</v>
+        <v>0.3788964107529836</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623973</v>
+        <v>3.880372866623994</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555434</v>
+        <v>14.60740387555441</v>
       </c>
       <c r="J8" t="n">
-        <v>32.1583592421459</v>
+        <v>32.15835924214607</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931962</v>
+        <v>48.19704430931988</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990119</v>
+        <v>59.79269533990151</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462952</v>
+        <v>66.53089438462989</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168143</v>
+        <v>67.6074338116818</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725647</v>
+        <v>63.83978262725682</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679223</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670107</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.800851661962</v>
+        <v>23.80085166196213</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033576</v>
+        <v>8.634101960033624</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071178</v>
+        <v>1.658619038071187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023852</v>
+        <v>0.03031171286023868</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250506</v>
+        <v>0.2027274522250517</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857726</v>
+        <v>1.957920393857737</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888805</v>
+        <v>6.979870613888843</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780621</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568846</v>
+        <v>32.73603775688478</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211022</v>
+        <v>44.01764264211047</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852683</v>
+        <v>51.36651278526858</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286525</v>
+        <v>52.72603153286553</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619439</v>
+        <v>48.23401798619465</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006252</v>
+        <v>38.71205182006273</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542927</v>
+        <v>25.87798144542941</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779745</v>
+        <v>12.58688514779751</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531091</v>
+        <v>3.765573509531112</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457081</v>
+        <v>0.8171338973457125</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322702</v>
+        <v>0.01333733238322709</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889912</v>
+        <v>0.1699598858889921</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540305</v>
+        <v>1.511097894540313</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643483</v>
+        <v>5.111157295643511</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235168</v>
+        <v>12.01616393235174</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055734</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207784</v>
+        <v>25.26839976207798</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803523</v>
+        <v>26.64198465803537</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063083</v>
+        <v>26.00849781063097</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547306</v>
+        <v>24.02305732547319</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333762</v>
+        <v>20.55587565333773</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839544</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
-        <v>7.64201450551773</v>
+        <v>7.642014505517772</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9619372840836</v>
+        <v>2.961937284083616</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075078</v>
+        <v>0.7261922397075117</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308622</v>
+        <v>0.009270539230308673</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -34155,7 +34155,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>42.75364899065037</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642294</v>
+        <v>14.19478239642302</v>
       </c>
       <c r="J8" t="n">
-        <v>32.1583592421459</v>
+        <v>32.15835924214608</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931962</v>
+        <v>48.19704430931988</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990119</v>
+        <v>59.79269533990153</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462953</v>
+        <v>66.53089438462985</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168143</v>
+        <v>67.6074338116818</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725645</v>
+        <v>63.8397826272568</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679224</v>
+        <v>54.48577748679253</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670106</v>
+        <v>40.91654977670129</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196199</v>
+        <v>23.8008516619621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888805</v>
+        <v>33.30681320020965</v>
       </c>
       <c r="J9" t="n">
-        <v>119.0839105424603</v>
+        <v>19.15329845780632</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568846</v>
+        <v>39.04591062440655</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211022</v>
+        <v>44.01764264211047</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852683</v>
+        <v>51.36651278526858</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286525</v>
+        <v>52.72603153286553</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619437</v>
+        <v>48.23401798619466</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006253</v>
+        <v>38.71205182006275</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542927</v>
+        <v>25.87798144542944</v>
       </c>
       <c r="R9" t="n">
-        <v>51.79011391164875</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235168</v>
+        <v>12.01616393235174</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055734</v>
+        <v>19.74624856055745</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207785</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803523</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="N10" t="n">
-        <v>30.59964249640944</v>
+        <v>119.0839105424609</v>
       </c>
       <c r="O10" t="n">
-        <v>119.0839105424603</v>
+        <v>47.7223284547897</v>
       </c>
       <c r="P10" t="n">
-        <v>119.0839105424603</v>
+        <v>20.55587565333775</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424603</v>
+        <v>14.23182280839552</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35506,13 +35506,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>194.3982176018708</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M13" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,19 +35813,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>296.1475206512696</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36047,16 +36047,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221537</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36132,13 +36132,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>170.8810658749147</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,13 +36448,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36521,16 +36521,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36591,10 +36591,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,19 +36603,19 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>277.1599674523497</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463627</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36913,10 +36913,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36995,16 +36995,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409517</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>324.3780935581794</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263756</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37393,7 +37393,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
@@ -37402,7 +37402,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
@@ -37484,7 +37484,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37548,13 +37548,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37563,7 +37563,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>298.4871160345855</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>309.8090425917344</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37782,7 +37782,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37943,22 +37943,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
-        <v>170.3637007145596</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38189,7 +38189,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512696</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
